--- a/Distancia euclidiana tabla.xlsx
+++ b/Distancia euclidiana tabla.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\giulia\Univ\VI Sem\Estructuras de datos avanzadas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E56638C5-DF02-4E95-9DBB-97439D0DF87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37533529-B4CF-4755-A6D4-A12C555E3CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabla (5)" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1545,7 +1545,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'tabla (5)'!$B$6</c:f>
+              <c:f>'tabla (5)'!$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1581,7 +1581,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'tabla (5)'!$C$5:$G$5</c:f>
+              <c:f>'tabla (5)'!$C$23:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1605,24 +1605,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'tabla (5)'!$C$6:$G$6</c:f>
+              <c:f>'tabla (5)'!$C$24:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>781105</c:v>
+                  <c:v>25005400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1029818</c:v>
+                  <c:v>30277900</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1283134</c:v>
+                  <c:v>34847000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2908097</c:v>
+                  <c:v>40683100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2262844</c:v>
+                  <c:v>44041500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1639,7 +1639,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'tabla (5)'!$B$7</c:f>
+              <c:f>'tabla (5)'!$B$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1675,7 +1675,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'tabla (5)'!$C$5:$G$5</c:f>
+              <c:f>'tabla (5)'!$C$23:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1699,24 +1699,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'tabla (5)'!$C$7:$G$7</c:f>
+              <c:f>'tabla (5)'!$C$25:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2008877</c:v>
+                  <c:v>56178400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2361783</c:v>
+                  <c:v>80944600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14426534</c:v>
+                  <c:v>118995200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3011285</c:v>
+                  <c:v>136349700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2887796</c:v>
+                  <c:v>142715000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1733,7 +1733,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'tabla (5)'!$B$8</c:f>
+              <c:f>'tabla (5)'!$B$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1769,7 +1769,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'tabla (5)'!$C$5:$G$5</c:f>
+              <c:f>'tabla (5)'!$C$23:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1793,24 +1793,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'tabla (5)'!$C$8:$G$8</c:f>
+              <c:f>'tabla (5)'!$C$26:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2801679</c:v>
+                  <c:v>111866200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50593105</c:v>
+                  <c:v>103926000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6220856</c:v>
+                  <c:v>119639300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4950909</c:v>
+                  <c:v>143791100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4333421</c:v>
+                  <c:v>157022100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1827,7 +1827,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'tabla (5)'!$B$9</c:f>
+              <c:f>'tabla (5)'!$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1861,7 +1861,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'tabla (5)'!$C$5:$G$5</c:f>
+              <c:f>'tabla (5)'!$C$23:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1885,24 +1885,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'tabla (5)'!$C$9:$G$9</c:f>
+              <c:f>'tabla (5)'!$C$27:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3979466</c:v>
+                  <c:v>93734500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4733328</c:v>
+                  <c:v>113947600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5006462</c:v>
+                  <c:v>132714300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5236148</c:v>
+                  <c:v>157069100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6673948</c:v>
+                  <c:v>170770500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1919,7 +1919,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'tabla (5)'!$B$10</c:f>
+              <c:f>'tabla (5)'!$B$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1953,7 +1953,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'tabla (5)'!$C$5:$G$5</c:f>
+              <c:f>'tabla (5)'!$C$23:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1977,24 +1977,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'tabla (5)'!$C$10:$G$10</c:f>
+              <c:f>'tabla (5)'!$C$28:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4912327</c:v>
+                  <c:v>117140600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7659255</c:v>
+                  <c:v>145854600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10023268</c:v>
+                  <c:v>167033600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11567611</c:v>
+                  <c:v>191409400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8248167</c:v>
+                  <c:v>213829400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3740,13 +3740,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B5:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>

--- a/Distancia euclidiana tabla.xlsx
+++ b/Distancia euclidiana tabla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\giulia\Univ\VI Sem\Estructuras de datos avanzadas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37533529-B4CF-4755-A6D4-A12C555E3CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834A3FA3-7067-4E25-8CD8-B6D66F43A17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3746,7 +3746,7 @@
   </sheetPr>
   <dimension ref="B5:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>

--- a/Distancia euclidiana tabla.xlsx
+++ b/Distancia euclidiana tabla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\giulia\Univ\VI Sem\Estructuras de datos avanzadas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834A3FA3-7067-4E25-8CD8-B6D66F43A17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23609B7-788F-4758-BC0A-D9752502ACBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
